--- a/example-comp/fish-data-comp-species-codes.xlsx
+++ b/example-comp/fish-data-comp-species-codes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edlabola\OneDrive - DOI\StreamNetFAIRAssessment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edlabola\code\fish-data-comp\example-comp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968C673D-4BC1-46A9-AAEA-B7FA4974A255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE2D2BC-0003-4D80-875E-903EDFF786FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{85C8E4FF-8315-47AE-9841-7B183547C377}"/>
   </bookViews>
@@ -950,12 +950,6 @@
     <t>comments</t>
   </si>
   <si>
-    <t>link given in DES is broken: download 'ca-populations.xls' from https://www.streamnet.org/cap/current-hli/current-pop/</t>
-  </si>
-  <si>
-    <t>DES indicates Full list is available from streamnet staff: ask Mike Banach</t>
-  </si>
-  <si>
     <t>https://www.streamnet.org/cap/current-hli/current-pop/</t>
   </si>
   <si>
@@ -1775,9 +1769,6 @@
     <t>Sponges</t>
   </si>
   <si>
-    <t>StreamNet species codes as of 2023-04-17.xlsx from Mike Banach</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -1818,6 +1809,15 @@
   </si>
   <si>
     <t>Salmon, Chinook (Lower Columbia River ESU)'</t>
+  </si>
+  <si>
+    <t>StreamNet-species-codes-2023-04-17</t>
+  </si>
+  <si>
+    <t>DES indicates Full list is available from streamnet staff (file is StreamNet-species-codes-2023-04-17)</t>
+  </si>
+  <si>
+    <t>link given in DES is broken: download 'ca-populations.xls' from https://www.streamnet.org/cap/current-hli/current-pop/ instead</t>
   </si>
 </sst>
 </file>
@@ -2193,8 +2193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305E977D-A769-4929-B2F2-F2FB97BBC61B}">
   <dimension ref="A1:G588"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="F73" sqref="F8:F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2242,7 +2242,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2262,7 +2262,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2282,7 +2282,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2302,7 +2302,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2322,7 +2322,7 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2342,7 +2342,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2359,10 +2359,10 @@
         <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -2379,10 +2379,10 @@
         <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2399,10 +2399,10 @@
         <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2419,10 +2419,10 @@
         <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -2433,16 +2433,16 @@
         <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2453,16 +2453,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2473,16 +2473,16 @@
         <v>4</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -2493,16 +2493,16 @@
         <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -2513,16 +2513,16 @@
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2533,16 +2533,16 @@
         <v>4</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -2559,10 +2559,10 @@
         <v>25</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2573,16 +2573,16 @@
         <v>4</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2593,16 +2593,16 @@
         <v>4</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2613,16 +2613,16 @@
         <v>4</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2639,10 +2639,10 @@
         <v>26</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2659,10 +2659,10 @@
         <v>27</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2673,16 +2673,16 @@
         <v>4</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2693,16 +2693,16 @@
         <v>4</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2713,16 +2713,16 @@
         <v>4</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2733,16 +2733,16 @@
         <v>4</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2759,10 +2759,10 @@
         <v>48</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2779,10 +2779,10 @@
         <v>49</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2799,10 +2799,10 @@
         <v>50</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2819,10 +2819,10 @@
         <v>51</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2839,10 +2839,10 @@
         <v>52</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2859,10 +2859,10 @@
         <v>53</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2879,10 +2879,10 @@
         <v>54</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2899,10 +2899,10 @@
         <v>55</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2919,10 +2919,10 @@
         <v>56</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2939,10 +2939,10 @@
         <v>57</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2959,10 +2959,10 @@
         <v>58</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2979,10 +2979,10 @@
         <v>59</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2999,10 +2999,10 @@
         <v>60</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -3019,10 +3019,10 @@
         <v>61</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -3039,10 +3039,10 @@
         <v>62</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -3059,10 +3059,10 @@
         <v>63</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -3079,10 +3079,10 @@
         <v>64</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -3099,10 +3099,10 @@
         <v>28</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -3119,10 +3119,10 @@
         <v>65</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -3139,10 +3139,10 @@
         <v>66</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -3159,10 +3159,10 @@
         <v>67</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -3179,10 +3179,10 @@
         <v>68</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -3199,10 +3199,10 @@
         <v>69</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -3219,10 +3219,10 @@
         <v>70</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -3239,10 +3239,10 @@
         <v>71</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -3259,10 +3259,10 @@
         <v>72</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -3279,10 +3279,10 @@
         <v>73</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -3299,10 +3299,10 @@
         <v>74</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -3319,10 +3319,10 @@
         <v>75</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -3339,10 +3339,10 @@
         <v>76</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -3359,10 +3359,10 @@
         <v>77</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -3379,10 +3379,10 @@
         <v>78</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -3399,10 +3399,10 @@
         <v>79</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -3419,10 +3419,10 @@
         <v>80</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -3439,10 +3439,10 @@
         <v>81</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -3459,10 +3459,10 @@
         <v>82</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -3479,10 +3479,10 @@
         <v>83</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -3499,10 +3499,10 @@
         <v>84</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -3519,10 +3519,10 @@
         <v>85</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -3539,10 +3539,10 @@
         <v>86</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -3559,10 +3559,10 @@
         <v>87</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -3579,10 +3579,10 @@
         <v>88</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -3599,10 +3599,10 @@
         <v>89</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -3619,10 +3619,10 @@
         <v>90</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -3639,10 +3639,10 @@
         <v>91</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -3659,10 +3659,10 @@
         <v>92</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>303</v>
+        <v>592</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3682,7 +3682,7 @@
         <v>127</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>304</v>
+        <v>591</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3702,7 +3702,7 @@
         <v>127</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>304</v>
+        <v>591</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3722,7 +3722,7 @@
         <v>127</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>304</v>
+        <v>591</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3742,7 +3742,7 @@
         <v>127</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>304</v>
+        <v>591</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3762,7 +3762,7 @@
         <v>127</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>304</v>
+        <v>591</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3782,7 +3782,7 @@
         <v>127</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>304</v>
+        <v>591</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3802,7 +3802,7 @@
         <v>127</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>304</v>
+        <v>591</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3822,7 +3822,7 @@
         <v>127</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>304</v>
+        <v>591</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3842,7 +3842,7 @@
         <v>127</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>304</v>
+        <v>591</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3862,7 +3862,7 @@
         <v>127</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>304</v>
+        <v>591</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3882,7 +3882,7 @@
         <v>127</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>304</v>
+        <v>591</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3902,7 +3902,7 @@
         <v>127</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>304</v>
+        <v>591</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3922,7 +3922,7 @@
         <v>127</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>304</v>
+        <v>591</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3942,7 +3942,7 @@
         <v>127</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>304</v>
+        <v>591</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3962,7 +3962,7 @@
         <v>127</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>304</v>
+        <v>591</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -3982,7 +3982,7 @@
         <v>127</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>304</v>
+        <v>591</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -4002,7 +4002,7 @@
         <v>127</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>304</v>
+        <v>591</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -4022,7 +4022,7 @@
         <v>127</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>304</v>
+        <v>591</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -4042,7 +4042,7 @@
         <v>127</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>304</v>
+        <v>591</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -4062,7 +4062,7 @@
         <v>127</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>304</v>
+        <v>591</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -4082,7 +4082,7 @@
         <v>127</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>304</v>
+        <v>591</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -4102,7 +4102,7 @@
         <v>127</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>304</v>
+        <v>591</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -4122,7 +4122,7 @@
         <v>127</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>304</v>
+        <v>591</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -4142,7 +4142,7 @@
         <v>127</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>304</v>
+        <v>591</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -4162,7 +4162,7 @@
         <v>127</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>304</v>
+        <v>591</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -4182,7 +4182,7 @@
         <v>127</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>304</v>
+        <v>591</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -4202,7 +4202,7 @@
         <v>127</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>304</v>
+        <v>591</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -4216,13 +4216,13 @@
         <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -4239,10 +4239,10 @@
         <v>136</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -4256,13 +4256,13 @@
         <v>16</v>
       </c>
       <c r="D103" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -4276,13 +4276,13 @@
         <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -4296,13 +4296,13 @@
         <v>19</v>
       </c>
       <c r="D105" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -4316,13 +4316,13 @@
         <v>20</v>
       </c>
       <c r="D106" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -4336,13 +4336,13 @@
         <v>22</v>
       </c>
       <c r="D107" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -4356,13 +4356,13 @@
         <v>24</v>
       </c>
       <c r="D108" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -4379,10 +4379,10 @@
         <v>152</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -4396,13 +4396,13 @@
         <v>26</v>
       </c>
       <c r="D110" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -4416,13 +4416,13 @@
         <v>27</v>
       </c>
       <c r="D111" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -4436,13 +4436,13 @@
         <v>28</v>
       </c>
       <c r="D112" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -4456,13 +4456,13 @@
         <v>29</v>
       </c>
       <c r="D113" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -4476,13 +4476,13 @@
         <v>30</v>
       </c>
       <c r="D114" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -4496,13 +4496,13 @@
         <v>31</v>
       </c>
       <c r="D115" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -4516,13 +4516,13 @@
         <v>32</v>
       </c>
       <c r="D116" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -4536,13 +4536,13 @@
         <v>33</v>
       </c>
       <c r="D117" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -4556,13 +4556,13 @@
         <v>34</v>
       </c>
       <c r="D118" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -4576,13 +4576,13 @@
         <v>35</v>
       </c>
       <c r="D119" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -4596,13 +4596,13 @@
         <v>36</v>
       </c>
       <c r="D120" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -4616,13 +4616,13 @@
         <v>37</v>
       </c>
       <c r="D121" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -4636,13 +4636,13 @@
         <v>38</v>
       </c>
       <c r="D122" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -4656,13 +4656,13 @@
         <v>40</v>
       </c>
       <c r="D123" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -4676,13 +4676,13 @@
         <v>41</v>
       </c>
       <c r="D124" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -4696,13 +4696,13 @@
         <v>42</v>
       </c>
       <c r="D125" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -4716,13 +4716,13 @@
         <v>43</v>
       </c>
       <c r="D126" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -4736,13 +4736,13 @@
         <v>45</v>
       </c>
       <c r="D127" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -4756,13 +4756,13 @@
         <v>46</v>
       </c>
       <c r="D128" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -4776,13 +4776,13 @@
         <v>47</v>
       </c>
       <c r="D129" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -4796,13 +4796,13 @@
         <v>48</v>
       </c>
       <c r="D130" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -4816,13 +4816,13 @@
         <v>49</v>
       </c>
       <c r="D131" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -4836,13 +4836,13 @@
         <v>50</v>
       </c>
       <c r="D132" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -4856,13 +4856,13 @@
         <v>51</v>
       </c>
       <c r="D133" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -4876,13 +4876,13 @@
         <v>52</v>
       </c>
       <c r="D134" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -4896,13 +4896,13 @@
         <v>53</v>
       </c>
       <c r="D135" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -4916,13 +4916,13 @@
         <v>54</v>
       </c>
       <c r="D136" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -4936,13 +4936,13 @@
         <v>55</v>
       </c>
       <c r="D137" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -4956,13 +4956,13 @@
         <v>56</v>
       </c>
       <c r="D138" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -4976,13 +4976,13 @@
         <v>57</v>
       </c>
       <c r="D139" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -4996,13 +4996,13 @@
         <v>58</v>
       </c>
       <c r="D140" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -5016,13 +5016,13 @@
         <v>59</v>
       </c>
       <c r="D141" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -5036,13 +5036,13 @@
         <v>60</v>
       </c>
       <c r="D142" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -5056,13 +5056,13 @@
         <v>61</v>
       </c>
       <c r="D143" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -5076,13 +5076,13 @@
         <v>62</v>
       </c>
       <c r="D144" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -5096,13 +5096,13 @@
         <v>63</v>
       </c>
       <c r="D145" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -5116,13 +5116,13 @@
         <v>64</v>
       </c>
       <c r="D146" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -5136,13 +5136,13 @@
         <v>65</v>
       </c>
       <c r="D147" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -5156,13 +5156,13 @@
         <v>67</v>
       </c>
       <c r="D148" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -5176,13 +5176,13 @@
         <v>68</v>
       </c>
       <c r="D149" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -5196,13 +5196,13 @@
         <v>69</v>
       </c>
       <c r="D150" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -5216,13 +5216,13 @@
         <v>70</v>
       </c>
       <c r="D151" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -5236,13 +5236,13 @@
         <v>71</v>
       </c>
       <c r="D152" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -5256,13 +5256,13 @@
         <v>72</v>
       </c>
       <c r="D153" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -5276,13 +5276,13 @@
         <v>73</v>
       </c>
       <c r="D154" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -5296,13 +5296,13 @@
         <v>74</v>
       </c>
       <c r="D155" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -5316,13 +5316,13 @@
         <v>75</v>
       </c>
       <c r="D156" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -5336,13 +5336,13 @@
         <v>76</v>
       </c>
       <c r="D157" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -5356,13 +5356,13 @@
         <v>77</v>
       </c>
       <c r="D158" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -5376,13 +5376,13 @@
         <v>78</v>
       </c>
       <c r="D159" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -5396,13 +5396,13 @@
         <v>79</v>
       </c>
       <c r="D160" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -5416,13 +5416,13 @@
         <v>80</v>
       </c>
       <c r="D161" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -5436,13 +5436,13 @@
         <v>81</v>
       </c>
       <c r="D162" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -5456,13 +5456,13 @@
         <v>82</v>
       </c>
       <c r="D163" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -5476,13 +5476,13 @@
         <v>83</v>
       </c>
       <c r="D164" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -5496,13 +5496,13 @@
         <v>84</v>
       </c>
       <c r="D165" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -5516,13 +5516,13 @@
         <v>85</v>
       </c>
       <c r="D166" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -5536,13 +5536,13 @@
         <v>86</v>
       </c>
       <c r="D167" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -5556,13 +5556,13 @@
         <v>87</v>
       </c>
       <c r="D168" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -5576,13 +5576,13 @@
         <v>88</v>
       </c>
       <c r="D169" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -5596,13 +5596,13 @@
         <v>89</v>
       </c>
       <c r="D170" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -5616,13 +5616,13 @@
         <v>90</v>
       </c>
       <c r="D171" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -5636,13 +5636,13 @@
         <v>91</v>
       </c>
       <c r="D172" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -5656,13 +5656,13 @@
         <v>92</v>
       </c>
       <c r="D173" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -5676,13 +5676,13 @@
         <v>93</v>
       </c>
       <c r="D174" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -5696,13 +5696,13 @@
         <v>95</v>
       </c>
       <c r="D175" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -5716,13 +5716,13 @@
         <v>97</v>
       </c>
       <c r="D176" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -5736,13 +5736,13 @@
         <v>98</v>
       </c>
       <c r="D177" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -5756,13 +5756,13 @@
         <v>99</v>
       </c>
       <c r="D178" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -5776,13 +5776,13 @@
         <v>100</v>
       </c>
       <c r="D179" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -5796,13 +5796,13 @@
         <v>101</v>
       </c>
       <c r="D180" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -5816,13 +5816,13 @@
         <v>102</v>
       </c>
       <c r="D181" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -5836,13 +5836,13 @@
         <v>103</v>
       </c>
       <c r="D182" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -5856,13 +5856,13 @@
         <v>104</v>
       </c>
       <c r="D183" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -5876,13 +5876,13 @@
         <v>105</v>
       </c>
       <c r="D184" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -5896,13 +5896,13 @@
         <v>106</v>
       </c>
       <c r="D185" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -5916,13 +5916,13 @@
         <v>107</v>
       </c>
       <c r="D186" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -5936,13 +5936,13 @@
         <v>108</v>
       </c>
       <c r="D187" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -5956,13 +5956,13 @@
         <v>109</v>
       </c>
       <c r="D188" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -5976,13 +5976,13 @@
         <v>110</v>
       </c>
       <c r="D189" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -5996,13 +5996,13 @@
         <v>112</v>
       </c>
       <c r="D190" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -6016,13 +6016,13 @@
         <v>113</v>
       </c>
       <c r="D191" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -6036,13 +6036,13 @@
         <v>114</v>
       </c>
       <c r="D192" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -6056,13 +6056,13 @@
         <v>115</v>
       </c>
       <c r="D193" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -6076,13 +6076,13 @@
         <v>116</v>
       </c>
       <c r="D194" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -6096,13 +6096,13 @@
         <v>117</v>
       </c>
       <c r="D195" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -6116,13 +6116,13 @@
         <v>118</v>
       </c>
       <c r="D196" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -6136,13 +6136,13 @@
         <v>119</v>
       </c>
       <c r="D197" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -6156,13 +6156,13 @@
         <v>121</v>
       </c>
       <c r="D198" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -6176,13 +6176,13 @@
         <v>123</v>
       </c>
       <c r="D199" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -6196,13 +6196,13 @@
         <v>124</v>
       </c>
       <c r="D200" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -6219,10 +6219,10 @@
         <v>138</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -6236,13 +6236,13 @@
         <v>126</v>
       </c>
       <c r="D202" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -6256,13 +6256,13 @@
         <v>127</v>
       </c>
       <c r="D203" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -6276,13 +6276,13 @@
         <v>128</v>
       </c>
       <c r="D204" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -6296,13 +6296,13 @@
         <v>129</v>
       </c>
       <c r="D205" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -6316,13 +6316,13 @@
         <v>130</v>
       </c>
       <c r="D206" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -6336,13 +6336,13 @@
         <v>131</v>
       </c>
       <c r="D207" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -6356,13 +6356,13 @@
         <v>132</v>
       </c>
       <c r="D208" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -6376,13 +6376,13 @@
         <v>133</v>
       </c>
       <c r="D209" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -6396,13 +6396,13 @@
         <v>134</v>
       </c>
       <c r="D210" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -6416,13 +6416,13 @@
         <v>135</v>
       </c>
       <c r="D211" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -6436,13 +6436,13 @@
         <v>136</v>
       </c>
       <c r="D212" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -6456,13 +6456,13 @@
         <v>137</v>
       </c>
       <c r="D213" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -6476,13 +6476,13 @@
         <v>138</v>
       </c>
       <c r="D214" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -6496,13 +6496,13 @@
         <v>139</v>
       </c>
       <c r="D215" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -6516,13 +6516,13 @@
         <v>140</v>
       </c>
       <c r="D216" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -6536,13 +6536,13 @@
         <v>141</v>
       </c>
       <c r="D217" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -6556,13 +6556,13 @@
         <v>142</v>
       </c>
       <c r="D218" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
@@ -6576,13 +6576,13 @@
         <v>143</v>
       </c>
       <c r="D219" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
@@ -6596,13 +6596,13 @@
         <v>144</v>
       </c>
       <c r="D220" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -6616,13 +6616,13 @@
         <v>145</v>
       </c>
       <c r="D221" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
@@ -6636,13 +6636,13 @@
         <v>146</v>
       </c>
       <c r="D222" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -6656,13 +6656,13 @@
         <v>147</v>
       </c>
       <c r="D223" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -6676,13 +6676,13 @@
         <v>148</v>
       </c>
       <c r="D224" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -6696,13 +6696,13 @@
         <v>149</v>
       </c>
       <c r="D225" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -6716,13 +6716,13 @@
         <v>150</v>
       </c>
       <c r="D226" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -6736,13 +6736,13 @@
         <v>151</v>
       </c>
       <c r="D227" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -6756,13 +6756,13 @@
         <v>152</v>
       </c>
       <c r="D228" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -6776,13 +6776,13 @@
         <v>153</v>
       </c>
       <c r="D229" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -6796,13 +6796,13 @@
         <v>154</v>
       </c>
       <c r="D230" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -6816,13 +6816,13 @@
         <v>155</v>
       </c>
       <c r="D231" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
@@ -6836,13 +6836,13 @@
         <v>156</v>
       </c>
       <c r="D232" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -6856,13 +6856,13 @@
         <v>157</v>
       </c>
       <c r="D233" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -6876,13 +6876,13 @@
         <v>158</v>
       </c>
       <c r="D234" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
@@ -6896,13 +6896,13 @@
         <v>159</v>
       </c>
       <c r="D235" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -6916,13 +6916,13 @@
         <v>160</v>
       </c>
       <c r="D236" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -6936,13 +6936,13 @@
         <v>161</v>
       </c>
       <c r="D237" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
@@ -6956,13 +6956,13 @@
         <v>162</v>
       </c>
       <c r="D238" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
@@ -6976,13 +6976,13 @@
         <v>163</v>
       </c>
       <c r="D239" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
@@ -6996,13 +6996,13 @@
         <v>164</v>
       </c>
       <c r="D240" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
@@ -7016,13 +7016,13 @@
         <v>165</v>
       </c>
       <c r="D241" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
@@ -7036,13 +7036,13 @@
         <v>166</v>
       </c>
       <c r="D242" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
@@ -7056,13 +7056,13 @@
         <v>167</v>
       </c>
       <c r="D243" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
@@ -7076,13 +7076,13 @@
         <v>168</v>
       </c>
       <c r="D244" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
@@ -7096,13 +7096,13 @@
         <v>169</v>
       </c>
       <c r="D245" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
@@ -7116,13 +7116,13 @@
         <v>170</v>
       </c>
       <c r="D246" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
@@ -7136,13 +7136,13 @@
         <v>171</v>
       </c>
       <c r="D247" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
@@ -7156,13 +7156,13 @@
         <v>172</v>
       </c>
       <c r="D248" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
@@ -7176,13 +7176,13 @@
         <v>173</v>
       </c>
       <c r="D249" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
@@ -7196,13 +7196,13 @@
         <v>174</v>
       </c>
       <c r="D250" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
@@ -7216,13 +7216,13 @@
         <v>175</v>
       </c>
       <c r="D251" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
@@ -7236,13 +7236,13 @@
         <v>176</v>
       </c>
       <c r="D252" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
@@ -7256,13 +7256,13 @@
         <v>177</v>
       </c>
       <c r="D253" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
@@ -7276,13 +7276,13 @@
         <v>178</v>
       </c>
       <c r="D254" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -7296,13 +7296,13 @@
         <v>179</v>
       </c>
       <c r="D255" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -7316,13 +7316,13 @@
         <v>180</v>
       </c>
       <c r="D256" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
@@ -7336,13 +7336,13 @@
         <v>181</v>
       </c>
       <c r="D257" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
@@ -7356,13 +7356,13 @@
         <v>182</v>
       </c>
       <c r="D258" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
@@ -7376,13 +7376,13 @@
         <v>183</v>
       </c>
       <c r="D259" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
@@ -7396,13 +7396,13 @@
         <v>184</v>
       </c>
       <c r="D260" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -7416,13 +7416,13 @@
         <v>185</v>
       </c>
       <c r="D261" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
@@ -7436,13 +7436,13 @@
         <v>186</v>
       </c>
       <c r="D262" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
@@ -7456,13 +7456,13 @@
         <v>187</v>
       </c>
       <c r="D263" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
@@ -7476,13 +7476,13 @@
         <v>188</v>
       </c>
       <c r="D264" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -7496,13 +7496,13 @@
         <v>189</v>
       </c>
       <c r="D265" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -7516,13 +7516,13 @@
         <v>190</v>
       </c>
       <c r="D266" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
@@ -7536,13 +7536,13 @@
         <v>191</v>
       </c>
       <c r="D267" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
@@ -7556,13 +7556,13 @@
         <v>192</v>
       </c>
       <c r="D268" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
@@ -7576,13 +7576,13 @@
         <v>193</v>
       </c>
       <c r="D269" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -7596,13 +7596,13 @@
         <v>194</v>
       </c>
       <c r="D270" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
@@ -7616,13 +7616,13 @@
         <v>195</v>
       </c>
       <c r="D271" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -7636,13 +7636,13 @@
         <v>196</v>
       </c>
       <c r="D272" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -7656,13 +7656,13 @@
         <v>197</v>
       </c>
       <c r="D273" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
@@ -7676,13 +7676,13 @@
         <v>198</v>
       </c>
       <c r="D274" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
@@ -7696,13 +7696,13 @@
         <v>199</v>
       </c>
       <c r="D275" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
@@ -7716,13 +7716,13 @@
         <v>200</v>
       </c>
       <c r="D276" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -7736,13 +7736,13 @@
         <v>201</v>
       </c>
       <c r="D277" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
@@ -7756,13 +7756,13 @@
         <v>202</v>
       </c>
       <c r="D278" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
@@ -7776,13 +7776,13 @@
         <v>203</v>
       </c>
       <c r="D279" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
@@ -7796,13 +7796,13 @@
         <v>204</v>
       </c>
       <c r="D280" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
@@ -7816,13 +7816,13 @@
         <v>205</v>
       </c>
       <c r="D281" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
@@ -7836,13 +7836,13 @@
         <v>206</v>
       </c>
       <c r="D282" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
@@ -7856,13 +7856,13 @@
         <v>207</v>
       </c>
       <c r="D283" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
@@ -7876,13 +7876,13 @@
         <v>208</v>
       </c>
       <c r="D284" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -7896,13 +7896,13 @@
         <v>209</v>
       </c>
       <c r="D285" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
@@ -7916,13 +7916,13 @@
         <v>210</v>
       </c>
       <c r="D286" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
@@ -7936,13 +7936,13 @@
         <v>211</v>
       </c>
       <c r="D287" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
@@ -7956,13 +7956,13 @@
         <v>212</v>
       </c>
       <c r="D288" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
@@ -7976,13 +7976,13 @@
         <v>213</v>
       </c>
       <c r="D289" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
@@ -7996,13 +7996,13 @@
         <v>214</v>
       </c>
       <c r="D290" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
@@ -8016,13 +8016,13 @@
         <v>215</v>
       </c>
       <c r="D291" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
@@ -8036,13 +8036,13 @@
         <v>216</v>
       </c>
       <c r="D292" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
@@ -8056,13 +8056,13 @@
         <v>217</v>
       </c>
       <c r="D293" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
@@ -8076,13 +8076,13 @@
         <v>218</v>
       </c>
       <c r="D294" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
@@ -8096,13 +8096,13 @@
         <v>219</v>
       </c>
       <c r="D295" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -8116,13 +8116,13 @@
         <v>220</v>
       </c>
       <c r="D296" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
@@ -8136,13 +8136,13 @@
         <v>221</v>
       </c>
       <c r="D297" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
@@ -8156,13 +8156,13 @@
         <v>222</v>
       </c>
       <c r="D298" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
@@ -8176,13 +8176,13 @@
         <v>223</v>
       </c>
       <c r="D299" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
@@ -8196,13 +8196,13 @@
         <v>224</v>
       </c>
       <c r="D300" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
@@ -8216,13 +8216,13 @@
         <v>225</v>
       </c>
       <c r="D301" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
@@ -8236,13 +8236,13 @@
         <v>226</v>
       </c>
       <c r="D302" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
@@ -8256,13 +8256,13 @@
         <v>227</v>
       </c>
       <c r="D303" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
@@ -8276,13 +8276,13 @@
         <v>228</v>
       </c>
       <c r="D304" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
@@ -8296,13 +8296,13 @@
         <v>229</v>
       </c>
       <c r="D305" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
@@ -8316,13 +8316,13 @@
         <v>230</v>
       </c>
       <c r="D306" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
@@ -8336,13 +8336,13 @@
         <v>231</v>
       </c>
       <c r="D307" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
@@ -8356,13 +8356,13 @@
         <v>232</v>
       </c>
       <c r="D308" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
@@ -8376,13 +8376,13 @@
         <v>233</v>
       </c>
       <c r="D309" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
@@ -8396,13 +8396,13 @@
         <v>234</v>
       </c>
       <c r="D310" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
@@ -8416,13 +8416,13 @@
         <v>235</v>
       </c>
       <c r="D311" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
@@ -8436,13 +8436,13 @@
         <v>236</v>
       </c>
       <c r="D312" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
@@ -8456,13 +8456,13 @@
         <v>237</v>
       </c>
       <c r="D313" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
@@ -8476,13 +8476,13 @@
         <v>238</v>
       </c>
       <c r="D314" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
@@ -8496,13 +8496,13 @@
         <v>239</v>
       </c>
       <c r="D315" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
@@ -8516,13 +8516,13 @@
         <v>240</v>
       </c>
       <c r="D316" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
@@ -8536,13 +8536,13 @@
         <v>241</v>
       </c>
       <c r="D317" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
@@ -8556,13 +8556,13 @@
         <v>242</v>
       </c>
       <c r="D318" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -8576,13 +8576,13 @@
         <v>243</v>
       </c>
       <c r="D319" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
@@ -8596,13 +8596,13 @@
         <v>244</v>
       </c>
       <c r="D320" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
@@ -8616,13 +8616,13 @@
         <v>245</v>
       </c>
       <c r="D321" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
@@ -8636,13 +8636,13 @@
         <v>246</v>
       </c>
       <c r="D322" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
@@ -8656,13 +8656,13 @@
         <v>247</v>
       </c>
       <c r="D323" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
@@ -8676,13 +8676,13 @@
         <v>248</v>
       </c>
       <c r="D324" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
@@ -8696,13 +8696,13 @@
         <v>249</v>
       </c>
       <c r="D325" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E325" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
@@ -8716,13 +8716,13 @@
         <v>250</v>
       </c>
       <c r="D326" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E326" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
@@ -8736,13 +8736,13 @@
         <v>251</v>
       </c>
       <c r="D327" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
@@ -8756,13 +8756,13 @@
         <v>252</v>
       </c>
       <c r="D328" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
@@ -8776,13 +8776,13 @@
         <v>253</v>
       </c>
       <c r="D329" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
@@ -8796,13 +8796,13 @@
         <v>254</v>
       </c>
       <c r="D330" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
@@ -8816,13 +8816,13 @@
         <v>255</v>
       </c>
       <c r="D331" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E331" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
@@ -8836,13 +8836,13 @@
         <v>256</v>
       </c>
       <c r="D332" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
@@ -8856,13 +8856,13 @@
         <v>257</v>
       </c>
       <c r="D333" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E333" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
@@ -8876,13 +8876,13 @@
         <v>258</v>
       </c>
       <c r="D334" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E334" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
@@ -8896,13 +8896,13 @@
         <v>259</v>
       </c>
       <c r="D335" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E335" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
@@ -8916,13 +8916,13 @@
         <v>260</v>
       </c>
       <c r="D336" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E336" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
@@ -8936,13 +8936,13 @@
         <v>261</v>
       </c>
       <c r="D337" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E337" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
@@ -8956,13 +8956,13 @@
         <v>262</v>
       </c>
       <c r="D338" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
@@ -8976,13 +8976,13 @@
         <v>263</v>
       </c>
       <c r="D339" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E339" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
@@ -8996,13 +8996,13 @@
         <v>264</v>
       </c>
       <c r="D340" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E340" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
@@ -9016,13 +9016,13 @@
         <v>265</v>
       </c>
       <c r="D341" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E341" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
@@ -9036,13 +9036,13 @@
         <v>266</v>
       </c>
       <c r="D342" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E342" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
@@ -9056,13 +9056,13 @@
         <v>267</v>
       </c>
       <c r="D343" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E343" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
@@ -9076,13 +9076,13 @@
         <v>268</v>
       </c>
       <c r="D344" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E344" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
@@ -9096,13 +9096,13 @@
         <v>269</v>
       </c>
       <c r="D345" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
@@ -9116,13 +9116,13 @@
         <v>270</v>
       </c>
       <c r="D346" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
@@ -9136,13 +9136,13 @@
         <v>271</v>
       </c>
       <c r="D347" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
@@ -9156,13 +9156,13 @@
         <v>272</v>
       </c>
       <c r="D348" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E348" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
@@ -9176,13 +9176,13 @@
         <v>273</v>
       </c>
       <c r="D349" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E349" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
@@ -9196,13 +9196,13 @@
         <v>274</v>
       </c>
       <c r="D350" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
@@ -9216,13 +9216,13 @@
         <v>275</v>
       </c>
       <c r="D351" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E351" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
@@ -9236,13 +9236,13 @@
         <v>276</v>
       </c>
       <c r="D352" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
@@ -9256,13 +9256,13 @@
         <v>277</v>
       </c>
       <c r="D353" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
@@ -9276,13 +9276,13 @@
         <v>278</v>
       </c>
       <c r="D354" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -9296,13 +9296,13 @@
         <v>279</v>
       </c>
       <c r="D355" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
@@ -9316,13 +9316,13 @@
         <v>280</v>
       </c>
       <c r="D356" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E356" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -9336,13 +9336,13 @@
         <v>281</v>
       </c>
       <c r="D357" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E357" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
@@ -9356,13 +9356,13 @@
         <v>282</v>
       </c>
       <c r="D358" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E358" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
@@ -9376,13 +9376,13 @@
         <v>283</v>
       </c>
       <c r="D359" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E359" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
@@ -9396,13 +9396,13 @@
         <v>284</v>
       </c>
       <c r="D360" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E360" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
@@ -9416,13 +9416,13 @@
         <v>285</v>
       </c>
       <c r="D361" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E361" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
@@ -9436,13 +9436,13 @@
         <v>286</v>
       </c>
       <c r="D362" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E362" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
@@ -9456,13 +9456,13 @@
         <v>287</v>
       </c>
       <c r="D363" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E363" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
@@ -9476,13 +9476,13 @@
         <v>1000</v>
       </c>
       <c r="D364" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E364" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
@@ -9496,13 +9496,13 @@
         <v>1001</v>
       </c>
       <c r="D365" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E365" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
@@ -9516,13 +9516,13 @@
         <v>1002</v>
       </c>
       <c r="D366" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E366" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
@@ -9536,13 +9536,13 @@
         <v>1003</v>
       </c>
       <c r="D367" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E367" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
@@ -9556,13 +9556,13 @@
         <v>1004</v>
       </c>
       <c r="D368" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E368" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
@@ -9576,13 +9576,13 @@
         <v>1005</v>
       </c>
       <c r="D369" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E369" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
@@ -9596,13 +9596,13 @@
         <v>1006</v>
       </c>
       <c r="D370" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E370" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
@@ -9616,13 +9616,13 @@
         <v>1007</v>
       </c>
       <c r="D371" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E371" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
@@ -9636,13 +9636,13 @@
         <v>1008</v>
       </c>
       <c r="D372" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E372" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
@@ -9656,13 +9656,13 @@
         <v>1009</v>
       </c>
       <c r="D373" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E373" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
@@ -9676,13 +9676,13 @@
         <v>1010</v>
       </c>
       <c r="D374" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E374" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
@@ -9696,13 +9696,13 @@
         <v>1011</v>
       </c>
       <c r="D375" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E375" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
@@ -9716,13 +9716,13 @@
         <v>1012</v>
       </c>
       <c r="D376" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E376" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
@@ -9730,7 +9730,7 @@
         <v>6</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C377">
         <v>1</v>
@@ -9742,7 +9742,7 @@
         <v>127</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
@@ -9750,7 +9750,7 @@
         <v>6</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C378">
         <v>2</v>
@@ -9762,7 +9762,7 @@
         <v>127</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
@@ -9770,7 +9770,7 @@
         <v>6</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C379">
         <v>3</v>
@@ -9782,7 +9782,7 @@
         <v>127</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
@@ -9790,7 +9790,7 @@
         <v>6</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C380">
         <v>4</v>
@@ -9802,7 +9802,7 @@
         <v>127</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
@@ -9810,7 +9810,7 @@
         <v>6</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C381">
         <v>5</v>
@@ -9822,7 +9822,7 @@
         <v>127</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
@@ -9830,7 +9830,7 @@
         <v>6</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C382">
         <v>99</v>
@@ -9842,7 +9842,7 @@
         <v>127</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
@@ -9850,7 +9850,7 @@
         <v>6</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C383">
         <v>1</v>
@@ -9862,7 +9862,7 @@
         <v>112</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
@@ -9870,7 +9870,7 @@
         <v>6</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C384">
         <v>2</v>
@@ -9882,7 +9882,7 @@
         <v>112</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
@@ -9890,7 +9890,7 @@
         <v>6</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C385">
         <v>3</v>
@@ -9902,7 +9902,7 @@
         <v>112</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
@@ -9910,7 +9910,7 @@
         <v>6</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C386">
         <v>4</v>
@@ -9922,7 +9922,7 @@
         <v>112</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
@@ -9930,7 +9930,7 @@
         <v>6</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C387">
         <v>12</v>
@@ -9942,7 +9942,7 @@
         <v>112</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
@@ -9950,7 +9950,7 @@
         <v>6</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C388">
         <v>13</v>
@@ -9962,7 +9962,7 @@
         <v>112</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
@@ -9970,7 +9970,7 @@
         <v>6</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C389">
         <v>16</v>
@@ -9982,7 +9982,7 @@
         <v>112</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
@@ -9990,7 +9990,7 @@
         <v>6</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C390">
         <v>17</v>
@@ -10002,7 +10002,7 @@
         <v>112</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
@@ -10010,7 +10010,7 @@
         <v>6</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C391">
         <v>18</v>
@@ -10022,7 +10022,7 @@
         <v>112</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
@@ -10030,7 +10030,7 @@
         <v>6</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C392">
         <v>19</v>
@@ -10042,7 +10042,7 @@
         <v>112</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
@@ -10050,7 +10050,7 @@
         <v>6</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C393">
         <v>20</v>
@@ -10062,7 +10062,7 @@
         <v>112</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
@@ -10070,7 +10070,7 @@
         <v>6</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C394">
         <v>21</v>
@@ -10082,7 +10082,7 @@
         <v>112</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
@@ -10090,7 +10090,7 @@
         <v>6</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C395">
         <v>22</v>
@@ -10102,7 +10102,7 @@
         <v>112</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
@@ -10110,7 +10110,7 @@
         <v>6</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C396">
         <v>23</v>
@@ -10122,7 +10122,7 @@
         <v>112</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="397" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -10130,7 +10130,7 @@
         <v>6</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C397" s="1">
         <v>98</v>
@@ -10142,7 +10142,7 @@
         <v>112</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
@@ -10150,7 +10150,7 @@
         <v>6</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C398">
         <v>99</v>
@@ -10162,7 +10162,7 @@
         <v>112</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
@@ -10170,7 +10170,7 @@
         <v>6</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C399">
         <v>1</v>
@@ -10182,7 +10182,7 @@
         <v>112</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
@@ -10190,7 +10190,7 @@
         <v>6</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C400">
         <v>2</v>
@@ -10202,7 +10202,7 @@
         <v>112</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
@@ -10210,7 +10210,7 @@
         <v>6</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C401">
         <v>3</v>
@@ -10222,7 +10222,7 @@
         <v>112</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
@@ -10230,7 +10230,7 @@
         <v>6</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C402">
         <v>4</v>
@@ -10242,7 +10242,7 @@
         <v>112</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
@@ -10250,7 +10250,7 @@
         <v>6</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C403">
         <v>5</v>
@@ -10262,7 +10262,7 @@
         <v>112</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
@@ -10270,7 +10270,7 @@
         <v>6</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C404">
         <v>6</v>
@@ -10282,7 +10282,7 @@
         <v>112</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
@@ -10290,7 +10290,7 @@
         <v>6</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C405">
         <v>7</v>
@@ -10302,7 +10302,7 @@
         <v>112</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
@@ -10310,7 +10310,7 @@
         <v>6</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C406">
         <v>8</v>
@@ -10322,7 +10322,7 @@
         <v>112</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
@@ -10330,7 +10330,7 @@
         <v>6</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C407">
         <v>9</v>
@@ -10342,7 +10342,7 @@
         <v>112</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
@@ -10350,7 +10350,7 @@
         <v>6</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C408">
         <v>98</v>
@@ -10362,7 +10362,7 @@
         <v>112</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
@@ -10370,7 +10370,7 @@
         <v>6</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C409">
         <v>99</v>
@@ -10382,7 +10382,7 @@
         <v>112</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
@@ -10402,7 +10402,7 @@
         <v>298</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
@@ -10422,7 +10422,7 @@
         <v>298</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
@@ -10442,7 +10442,7 @@
         <v>298</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
@@ -10462,7 +10462,7 @@
         <v>298</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
@@ -10482,7 +10482,7 @@
         <v>298</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
@@ -10502,7 +10502,7 @@
         <v>298</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
@@ -10522,7 +10522,7 @@
         <v>298</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
@@ -10542,7 +10542,7 @@
         <v>298</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
@@ -10562,7 +10562,7 @@
         <v>298</v>
       </c>
       <c r="F418" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
@@ -10582,7 +10582,7 @@
         <v>298</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
@@ -10602,7 +10602,7 @@
         <v>298</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
@@ -10622,7 +10622,7 @@
         <v>298</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
@@ -10642,7 +10642,7 @@
         <v>298</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
@@ -10662,7 +10662,7 @@
         <v>298</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
@@ -10682,7 +10682,7 @@
         <v>298</v>
       </c>
       <c r="F424" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
@@ -10702,7 +10702,7 @@
         <v>298</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
@@ -10722,7 +10722,7 @@
         <v>298</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
@@ -10742,7 +10742,7 @@
         <v>298</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
@@ -10762,7 +10762,7 @@
         <v>298</v>
       </c>
       <c r="F428" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
@@ -10782,7 +10782,7 @@
         <v>298</v>
       </c>
       <c r="F429" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
@@ -10802,7 +10802,7 @@
         <v>298</v>
       </c>
       <c r="F430" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
@@ -10822,7 +10822,7 @@
         <v>298</v>
       </c>
       <c r="F431" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
@@ -10839,7 +10839,7 @@
         <v>299</v>
       </c>
       <c r="F432" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
@@ -10859,7 +10859,7 @@
         <v>299</v>
       </c>
       <c r="F433" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
@@ -10879,7 +10879,7 @@
         <v>299</v>
       </c>
       <c r="F434" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
@@ -10899,7 +10899,7 @@
         <v>299</v>
       </c>
       <c r="F435" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.3">
@@ -10919,7 +10919,7 @@
         <v>299</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
@@ -10939,7 +10939,7 @@
         <v>299</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.3">
@@ -10959,7 +10959,7 @@
         <v>299</v>
       </c>
       <c r="F438" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
@@ -10979,7 +10979,7 @@
         <v>300</v>
       </c>
       <c r="F439" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
@@ -10999,7 +10999,7 @@
         <v>300</v>
       </c>
       <c r="F440" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
@@ -11019,7 +11019,7 @@
         <v>300</v>
       </c>
       <c r="F441" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="442" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -13805,7 +13805,7 @@
         <v>287</v>
       </c>
       <c r="F580" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G580" s="1"/>
     </row>
@@ -13826,7 +13826,7 @@
         <v>287</v>
       </c>
       <c r="F581" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G581" s="1"/>
     </row>
@@ -13847,7 +13847,7 @@
         <v>287</v>
       </c>
       <c r="F582" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G582" s="1"/>
     </row>
@@ -13868,7 +13868,7 @@
         <v>287</v>
       </c>
       <c r="F583" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G583" s="1"/>
     </row>
@@ -13889,7 +13889,7 @@
         <v>287</v>
       </c>
       <c r="F584" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G584" s="1"/>
     </row>
@@ -13910,7 +13910,7 @@
         <v>287</v>
       </c>
       <c r="F585" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.3">
@@ -13930,7 +13930,7 @@
         <v>287</v>
       </c>
       <c r="F586" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.3">
@@ -13950,7 +13950,7 @@
         <v>287</v>
       </c>
       <c r="F587" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.3">
@@ -13970,7 +13970,7 @@
         <v>286</v>
       </c>
       <c r="F588" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>
